--- a/Flybot_FC/Flybot FC/bom/Flybot_FC.xlsx
+++ b/Flybot_FC/Flybot FC/bom/Flybot_FC.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Flybot_FC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
